--- a/tablas/medidas_heart.xlsx
+++ b/tablas/medidas_heart.xlsx
@@ -83,15 +83,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,6 +115,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,12 +160,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,10 +197,10 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -240,16 +247,16 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>417</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>90</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -281,16 +288,16 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>455</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>53</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -322,16 +329,16 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>508</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>410</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -363,16 +370,16 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>436</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>335</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>72</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -404,16 +411,16 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>294</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>136</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -445,16 +452,16 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>327</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>58</v>
       </c>
       <c r="F7" s="1" t="n">
@@ -483,7 +490,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="2"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
